--- a/biology/Botanique/Coelogyne/Coelogyne.xlsx
+++ b/biology/Botanique/Coelogyne/Coelogyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelogyne est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae et de la tribu des Arethuseae. C'est le genre type de la sous-tribu des Coelogyninae.
 Il comporte 190 espèces, 2 sous-espèces et 12 variétés, ce qui fait 204 taxons en tout. On trouve les Coelogyne sous tous les climats, chaud, tempéré, frais et froid, en Asie du sud et du sud-est jusqu'aux îles du Pacifique du sud-ouest à l'est. La plupart des espèces sont surtout épiphytes, bien que beaucoup soient lithophytes ou terrestres.
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coelogyne acutilabium de Vogel
